--- a/specifications/ScriptRules_I&D.xlsx
+++ b/specifications/ScriptRules_I&D.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1135,8 +1135,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="260.404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="262.87044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1330,9 +1330,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1545,22 +1545,22 @@
   </sheetPr>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="74.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="42.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="74.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2994,7 +2994,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="74.8744939271255"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="13" min="9" style="0" width="9.10526315789474"/>
@@ -5467,12 +5467,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="74.8744939271255"/>
     <col collapsed="false" hidden="true" max="3" min="2" style="20" width="0"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="21" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="23" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="24" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="25" width="9.10526315789474"/>
@@ -15789,15 +15789,15 @@
   </sheetPr>
   <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6032388663968"/>
@@ -15806,7 +15806,7 @@
     <col collapsed="false" hidden="false" max="15" min="13" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19412,7 +19412,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -19486,7 +19486,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>12</v>
@@ -19560,7 +19560,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -19634,7 +19634,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
@@ -19702,7 +19702,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>11</v>
@@ -19770,7 +19770,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
